--- a/Writeups/List.Design_RS 06.28.xlsx
+++ b/Writeups/List.Design_RS 06.28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\Social.Influence_Speech.Perception\SI.SP\Writeups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097B3971-1BD6-4056-87E8-27F05D9A8FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE673B36-B15D-4A15-BBBA-3A9364CE3F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="7310" xr2:uid="{859F6FC5-D8FA-4EF3-B140-1165E32B4509}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{859F6FC5-D8FA-4EF3-B140-1165E32B4509}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,16 +172,16 @@
     <t>Voices</t>
   </si>
   <si>
-    <t>*10 singular audio files*</t>
-  </si>
-  <si>
-    <t>*16 critical stereo files*</t>
-  </si>
-  <si>
     <t>*? catch files*</t>
   </si>
   <si>
     <t>How to decide which critical words are paired with catch</t>
+  </si>
+  <si>
+    <t>*42 singular audio files*</t>
+  </si>
+  <si>
+    <t>*16 critical stereo files x 5 = 80*</t>
   </si>
 </sst>
 </file>
@@ -1061,60 +1061,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1131,51 +1089,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1206,42 +1119,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1264,90 +1141,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1359,21 +1152,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1406,15 +1184,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1433,127 +1202,358 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1883,789 +1883,789 @@
   </sheetPr>
   <dimension ref="B2:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="O2" s="100" t="s">
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="O2" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="T2" s="157" t="s">
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="T2" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="145"/>
+      <c r="D3" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="145"/>
+      <c r="F3" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="186"/>
+      <c r="H3" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="22" t="s">
+      <c r="I3" s="147"/>
+      <c r="J3" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="22" t="s">
+      <c r="K3" s="145"/>
+      <c r="L3" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="O3" s="105" t="s">
+      <c r="M3" s="145"/>
+      <c r="O3" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="105" t="s">
+      <c r="P3" s="134"/>
+      <c r="Q3" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="106"/>
+      <c r="R3" s="134"/>
     </row>
     <row r="4" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="133" t="s">
+      <c r="F4" s="187"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="134" t="s">
+      <c r="K4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="136" t="s">
+      <c r="L4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="135" t="s">
+      <c r="M4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="107" t="s">
+      <c r="O4" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="113" t="s">
+      <c r="P4" s="136"/>
+      <c r="Q4" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="114"/>
-      <c r="T4" s="158" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="160" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="171" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y4" s="120"/>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="120"/>
+      <c r="R4" s="126"/>
+      <c r="T4" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
     </row>
     <row r="5" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="85" t="s">
+      <c r="B5" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="65" t="s">
+      <c r="D5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="71" t="s">
+      <c r="G5" s="162"/>
+      <c r="H5" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="61" t="s">
+      <c r="I5" s="184"/>
+      <c r="J5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="61" t="s">
+      <c r="K5" s="33"/>
+      <c r="L5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="O5" s="103" t="s">
+      <c r="M5" s="33"/>
+      <c r="O5" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="101" t="s">
+      <c r="P5" s="122"/>
+      <c r="Q5" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="102"/>
-      <c r="T5" s="161" t="s">
+      <c r="R5" s="128"/>
+      <c r="T5" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="162" t="s">
+      <c r="U5" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="163" t="s">
+      <c r="V5" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="172" t="s">
+      <c r="W5" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="170" t="s">
+      <c r="X5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="120"/>
-      <c r="AA5" s="120"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
     </row>
     <row r="6" spans="2:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="66" t="s">
+      <c r="D6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="47" t="s">
+      <c r="G6" s="158"/>
+      <c r="H6" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="63"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="34"/>
       <c r="K6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="63"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="109" t="s">
+      <c r="O6" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="115" t="s">
+      <c r="P6" s="138"/>
+      <c r="Q6" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="116"/>
-      <c r="Z6" s="175" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA6" s="176"/>
-      <c r="AB6" s="174"/>
-      <c r="AC6" s="174"/>
+      <c r="R6" s="130"/>
+      <c r="Z6" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="102"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
     </row>
     <row r="7" spans="2:29" ht="16" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="67" t="s">
+      <c r="D7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="72" t="s">
+      <c r="G7" s="166"/>
+      <c r="H7" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="58"/>
+      <c r="I7" s="180"/>
       <c r="J7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="25"/>
       <c r="L7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="O7" s="103" t="s">
+      <c r="M7" s="25"/>
+      <c r="O7" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="101" t="s">
+      <c r="P7" s="122"/>
+      <c r="Q7" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="102"/>
-      <c r="T7" s="187" t="s">
-        <v>10</v>
-      </c>
-      <c r="U7" s="188" t="s">
-        <v>10</v>
-      </c>
-      <c r="V7" s="186" t="s">
-        <v>10</v>
-      </c>
-      <c r="W7" s="188" t="s">
-        <v>10</v>
-      </c>
-      <c r="X7" s="168" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="177"/>
-      <c r="AA7" s="178"/>
-      <c r="AB7" s="174"/>
-      <c r="AC7" s="174"/>
+      <c r="R7" s="128"/>
+      <c r="T7" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="U7" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="X7" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="104"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
     </row>
     <row r="8" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="68" t="s">
+      <c r="D8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="47" t="s">
+      <c r="G8" s="158"/>
+      <c r="H8" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="63"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="34"/>
       <c r="K8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="63"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="111" t="s">
+      <c r="O8" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="117" t="s">
+      <c r="P8" s="124"/>
+      <c r="Q8" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="118"/>
-      <c r="T8" s="165" t="s">
+      <c r="R8" s="132"/>
+      <c r="T8" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="166" t="s">
+      <c r="U8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="167" t="s">
+      <c r="V8" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="W8" s="169" t="s">
+      <c r="W8" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="170" t="s">
+      <c r="X8" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="Z8" s="177"/>
-      <c r="AA8" s="178"/>
-      <c r="AB8" s="137"/>
-      <c r="AC8" s="137"/>
+      <c r="Z8" s="103"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="69" t="s">
+      <c r="D9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="49" t="s">
+      <c r="G9" s="154"/>
+      <c r="H9" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="48"/>
+      <c r="I9" s="181"/>
       <c r="J9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="36"/>
+      <c r="K9" s="25"/>
       <c r="L9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="O9" s="184" t="s">
+      <c r="M9" s="25"/>
+      <c r="O9" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="184"/>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="184"/>
-      <c r="Z9" s="177"/>
-      <c r="AA9" s="178"/>
-      <c r="AB9" s="137"/>
-      <c r="AC9" s="137"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="66" t="s">
+      <c r="D10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="73" t="s">
+      <c r="G10" s="174"/>
+      <c r="H10" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="63"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="34"/>
       <c r="K10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="63"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="185"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="185"/>
-      <c r="T10" s="181" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="181"/>
-      <c r="V10" s="181"/>
-      <c r="W10" s="181"/>
-      <c r="X10" s="181"/>
-      <c r="Z10" s="177"/>
-      <c r="AA10" s="178"/>
-      <c r="AB10" s="137"/>
-      <c r="AC10" s="137"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="T10" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" s="100"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="100"/>
+      <c r="X10" s="100"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="104"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
     </row>
     <row r="11" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="67" t="s">
+      <c r="D11" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="49" t="s">
+      <c r="G11" s="154"/>
+      <c r="H11" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="48"/>
+      <c r="I11" s="181"/>
       <c r="J11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="36"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="Z11" s="179"/>
-      <c r="AA11" s="180"/>
-      <c r="AB11" s="137"/>
-      <c r="AC11" s="137"/>
+      <c r="M11" s="25"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
     </row>
     <row r="12" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="70" t="s">
+      <c r="D12" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="81" t="s">
+      <c r="F12" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="74" t="s">
+      <c r="G12" s="156"/>
+      <c r="H12" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="64"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="64"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Z12" s="173"/>
-      <c r="AA12" s="173"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
     </row>
     <row r="14" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="123" t="s">
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="123"/>
-      <c r="T14" s="123"/>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="123"/>
-      <c r="AA14" s="123"/>
-      <c r="AB14" s="137"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="63"/>
     </row>
     <row r="15" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="145"/>
+      <c r="D15" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24" t="s">
+      <c r="E15" s="145"/>
+      <c r="F15" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="24" t="s">
+      <c r="G15" s="147"/>
+      <c r="H15" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="139" t="s">
+      <c r="I15" s="147"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="140"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="139" t="s">
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="S15" s="140"/>
-      <c r="T15" s="140"/>
-      <c r="U15" s="141"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="139" t="s">
+      <c r="S15" s="118"/>
+      <c r="T15" s="118"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="Y15" s="140"/>
-      <c r="Z15" s="140"/>
-      <c r="AA15" s="141"/>
-      <c r="AB15" s="137"/>
+      <c r="Y15" s="118"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="119"/>
+      <c r="AB15" s="63"/>
     </row>
     <row r="16" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="126" t="s">
+      <c r="E16" s="151"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="M16" s="127"/>
-      <c r="N16" s="124" t="s">
+      <c r="M16" s="111"/>
+      <c r="N16" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="125"/>
-      <c r="P16" s="138"/>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="126" t="s">
+      <c r="O16" s="113"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="S16" s="127"/>
-      <c r="T16" s="124" t="s">
+      <c r="S16" s="111"/>
+      <c r="T16" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="U16" s="125"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="126" t="s">
+      <c r="U16" s="113"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="124" t="s">
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="AA16" s="125"/>
-      <c r="AB16" s="137"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="63"/>
     </row>
     <row r="17" spans="2:34" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="85" t="s">
+      <c r="B17" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="75" t="s">
+      <c r="D17" s="152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="152"/>
+      <c r="F17" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="76"/>
-      <c r="H17" s="71" t="s">
+      <c r="G17" s="162"/>
+      <c r="H17" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="142" t="s">
+      <c r="I17" s="172"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="143" t="s">
+      <c r="M17" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="142" t="s">
+      <c r="N17" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="O17" s="143" t="s">
+      <c r="O17" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="138"/>
-      <c r="Q17" s="138"/>
-      <c r="R17" s="142" t="s">
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="S17" s="143" t="s">
+      <c r="S17" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="T17" s="142" t="s">
+      <c r="T17" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="U17" s="143" t="s">
+      <c r="U17" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="150" t="s">
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="Y17" s="151" t="s">
+      <c r="Y17" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Z17" s="150" t="s">
+      <c r="Z17" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AA17" s="151" t="s">
+      <c r="AA17" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="AB17" s="137"/>
+      <c r="AB17" s="63"/>
     </row>
     <row r="18" spans="2:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="98" t="s">
+      <c r="D18" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="140"/>
+      <c r="F18" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="99"/>
-      <c r="H18" s="97" t="s">
+      <c r="G18" s="164"/>
+      <c r="H18" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="148" t="s">
+      <c r="I18" s="176"/>
+      <c r="J18" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="145">
+      <c r="K18" s="68">
         <v>1</v>
       </c>
-      <c r="L18" s="128" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="129" t="s">
+      <c r="L18" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="130" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="131" t="s">
+      <c r="N18" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="148" t="s">
+      <c r="P18" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="Q18" s="147">
+      <c r="Q18" s="70">
         <v>9</v>
       </c>
-      <c r="R18" s="128" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="129" t="s">
+      <c r="R18" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="T18" s="130" t="s">
-        <v>10</v>
-      </c>
-      <c r="U18" s="131" t="s">
+      <c r="T18" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="U18" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="V18" s="148" t="s">
+      <c r="V18" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="W18" s="145" t="s">
+      <c r="W18" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="X18" s="128" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y18" s="129" t="s">
+      <c r="X18" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Z18" s="130" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA18" s="153" t="s">
+      <c r="Z18" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="AB18" s="137"/>
-      <c r="AC18" s="144"/>
-      <c r="AD18" s="144"/>
-      <c r="AE18" s="144"/>
-      <c r="AF18" s="144"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="67"/>
     </row>
     <row r="19" spans="2:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="78" t="s">
+      <c r="D19" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="139"/>
+      <c r="F19" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="72" t="s">
+      <c r="G19" s="166"/>
+      <c r="H19" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="145">
+      <c r="I19" s="174"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="68">
         <v>2</v>
       </c>
       <c r="L19" s="17" t="s">
@@ -2674,14 +2674,14 @@
       <c r="M19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="155" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" s="86" t="s">
+      <c r="N19" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="P19" s="149"/>
-      <c r="Q19" s="147">
+      <c r="P19" s="115"/>
+      <c r="Q19" s="70">
         <v>10</v>
       </c>
       <c r="R19" s="17" t="s">
@@ -2693,11 +2693,11 @@
       <c r="T19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="U19" s="86" t="s">
+      <c r="U19" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="V19" s="149"/>
-      <c r="W19" s="145" t="s">
+      <c r="V19" s="115"/>
+      <c r="W19" s="68" t="s">
         <v>43</v>
       </c>
       <c r="X19" s="14" t="s">
@@ -2712,49 +2712,49 @@
       <c r="AA19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AB19" s="152"/>
-      <c r="AC19" s="144"/>
-      <c r="AD19" s="144"/>
-      <c r="AE19" s="144"/>
-      <c r="AF19" s="144"/>
+      <c r="AB19" s="73"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
     </row>
     <row r="20" spans="2:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="77" t="s">
+      <c r="D20" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="140"/>
+      <c r="F20" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="47" t="s">
+      <c r="G20" s="158"/>
+      <c r="H20" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="145">
+      <c r="I20" s="154"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="68">
         <v>3</v>
       </c>
       <c r="L20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="67" t="s">
+      <c r="M20" s="38" t="s">
         <v>11</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="154" t="s">
+      <c r="O20" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="P20" s="149"/>
-      <c r="Q20" s="147">
+      <c r="P20" s="115"/>
+      <c r="Q20" s="70">
         <v>11</v>
       </c>
       <c r="R20" s="13" t="s">
@@ -2766,11 +2766,11 @@
       <c r="T20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U20" s="87" t="s">
+      <c r="U20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="V20" s="149"/>
-      <c r="W20" s="145" t="s">
+      <c r="V20" s="115"/>
+      <c r="W20" s="68" t="s">
         <v>43</v>
       </c>
       <c r="X20" s="16" t="s">
@@ -2785,33 +2785,33 @@
       <c r="AA20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AB20" s="152"/>
-      <c r="AC20" s="144"/>
-      <c r="AD20" s="144"/>
-      <c r="AE20" s="144"/>
-      <c r="AF20" s="144"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="67"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="67"/>
     </row>
     <row r="21" spans="2:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="94"/>
-      <c r="F21" s="79" t="s">
+      <c r="D21" s="141" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="141"/>
+      <c r="F21" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="49" t="s">
+      <c r="G21" s="154"/>
+      <c r="H21" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="145">
+      <c r="I21" s="158"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="68">
         <v>4</v>
       </c>
       <c r="L21" s="14" t="s">
@@ -2820,14 +2820,14 @@
       <c r="M21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="156" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="86" t="s">
+      <c r="N21" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="149"/>
-      <c r="Q21" s="147">
+      <c r="P21" s="115"/>
+      <c r="Q21" s="70">
         <v>12</v>
       </c>
       <c r="R21" s="14" t="s">
@@ -2839,11 +2839,11 @@
       <c r="T21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="U21" s="86" t="s">
+      <c r="U21" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="V21" s="149"/>
-      <c r="W21" s="145" t="s">
+      <c r="V21" s="115"/>
+      <c r="W21" s="68" t="s">
         <v>43</v>
       </c>
       <c r="X21" s="14" t="s">
@@ -2858,33 +2858,33 @@
       <c r="AA21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AB21" s="152"/>
-      <c r="AC21" s="144"/>
-      <c r="AD21" s="144"/>
-      <c r="AE21" s="144"/>
-      <c r="AF21" s="144"/>
+      <c r="AB21" s="73"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="67"/>
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="67"/>
     </row>
     <row r="22" spans="2:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="80" t="s">
+      <c r="D22" s="142" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="142"/>
+      <c r="F22" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="73" t="s">
+      <c r="G22" s="174"/>
+      <c r="H22" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="55"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="145">
+      <c r="I22" s="166"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="68">
         <v>5</v>
       </c>
       <c r="L22" s="16" t="s">
@@ -2896,11 +2896,11 @@
       <c r="N22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="89" t="s">
+      <c r="O22" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="149"/>
-      <c r="Q22" s="147">
+      <c r="P22" s="115"/>
+      <c r="Q22" s="70">
         <v>13</v>
       </c>
       <c r="R22" s="16" t="s">
@@ -2912,11 +2912,11 @@
       <c r="T22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="89" t="s">
+      <c r="U22" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="V22" s="149"/>
-      <c r="W22" s="145" t="s">
+      <c r="V22" s="115"/>
+      <c r="W22" s="68" t="s">
         <v>43</v>
       </c>
       <c r="X22" s="16" t="s">
@@ -2928,37 +2928,37 @@
       <c r="Z22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA22" s="89" t="s">
+      <c r="AA22" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AB22" s="152"/>
-      <c r="AC22" s="144"/>
-      <c r="AD22" s="144"/>
-      <c r="AE22" s="144"/>
-      <c r="AF22" s="144"/>
-      <c r="AH22" s="144"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="67"/>
+      <c r="AH22" s="67"/>
     </row>
     <row r="23" spans="2:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="79" t="s">
+      <c r="D23" s="141" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="141"/>
+      <c r="F23" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="49" t="s">
+      <c r="G23" s="154"/>
+      <c r="H23" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="145">
+      <c r="I23" s="158"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="68">
         <v>6</v>
       </c>
       <c r="L23" s="17" t="s">
@@ -2970,11 +2970,11 @@
       <c r="N23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="88" t="s">
+      <c r="O23" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="P23" s="149"/>
-      <c r="Q23" s="147">
+      <c r="P23" s="115"/>
+      <c r="Q23" s="70">
         <v>14</v>
       </c>
       <c r="R23" s="17" t="s">
@@ -2986,11 +2986,11 @@
       <c r="T23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="U23" s="88" t="s">
+      <c r="U23" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="V23" s="149"/>
-      <c r="W23" s="145" t="s">
+      <c r="V23" s="115"/>
+      <c r="W23" s="68" t="s">
         <v>43</v>
       </c>
       <c r="X23" s="14" t="s">
@@ -3002,37 +3002,37 @@
       <c r="Z23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AA23" s="86" t="s">
+      <c r="AA23" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="AB23" s="152"/>
-      <c r="AC23" s="144"/>
-      <c r="AD23" s="144"/>
-      <c r="AE23" s="144"/>
-      <c r="AF23" s="144"/>
-      <c r="AH23" s="144"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AH23" s="67"/>
     </row>
     <row r="24" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="96"/>
-      <c r="F24" s="81" t="s">
+      <c r="D24" s="143" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="143"/>
+      <c r="F24" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="82"/>
-      <c r="H24" s="74" t="s">
+      <c r="G24" s="156"/>
+      <c r="H24" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="145">
+      <c r="I24" s="160"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="68">
         <v>7</v>
       </c>
       <c r="L24" s="13" t="s">
@@ -3044,11 +3044,11 @@
       <c r="N24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O24" s="89" t="s">
+      <c r="O24" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="P24" s="149"/>
-      <c r="Q24" s="147">
+      <c r="P24" s="115"/>
+      <c r="Q24" s="70">
         <v>15</v>
       </c>
       <c r="R24" s="13" t="s">
@@ -3060,11 +3060,11 @@
       <c r="T24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U24" s="89" t="s">
+      <c r="U24" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="V24" s="149"/>
-      <c r="W24" s="145" t="s">
+      <c r="V24" s="115"/>
+      <c r="W24" s="68" t="s">
         <v>43</v>
       </c>
       <c r="X24" s="16" t="s">
@@ -3076,182 +3076,125 @@
       <c r="Z24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA24" s="87" t="s">
+      <c r="AA24" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="AB24" s="137"/>
-      <c r="AC24" s="144"/>
-      <c r="AD24" s="144"/>
-      <c r="AE24" s="144"/>
-      <c r="AF24" s="144"/>
-      <c r="AH24" s="144"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="67"/>
+      <c r="AH24" s="67"/>
     </row>
     <row r="25" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J25" s="149"/>
-      <c r="K25" s="146">
+      <c r="J25" s="115"/>
+      <c r="K25" s="69">
         <v>8</v>
       </c>
-      <c r="L25" s="121" t="s">
+      <c r="L25" s="52" t="s">
         <v>10</v>
       </c>
       <c r="M25" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="132" t="s">
-        <v>12</v>
-      </c>
-      <c r="O25" s="90" t="s">
+      <c r="N25" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="P25" s="149"/>
-      <c r="Q25" s="147">
+      <c r="P25" s="115"/>
+      <c r="Q25" s="70">
         <v>16</v>
       </c>
-      <c r="R25" s="121" t="s">
+      <c r="R25" s="52" t="s">
         <v>10</v>
       </c>
       <c r="S25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="T25" s="132" t="s">
-        <v>12</v>
-      </c>
-      <c r="U25" s="90" t="s">
+      <c r="T25" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="U25" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="149"/>
-      <c r="W25" s="146" t="s">
+      <c r="V25" s="115"/>
+      <c r="W25" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="X25" s="121" t="s">
+      <c r="X25" s="52" t="s">
         <v>10</v>
       </c>
       <c r="Y25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Z25" s="132" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA25" s="90" t="s">
+      <c r="Z25" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA25" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="AB25" s="137"/>
-      <c r="AC25" s="144"/>
-      <c r="AD25" s="144"/>
-      <c r="AE25" s="144"/>
-      <c r="AF25" s="144"/>
-      <c r="AH25" s="144"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="67"/>
+      <c r="AH25" s="67"/>
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="O26" s="137"/>
-      <c r="T26" s="137"/>
-      <c r="U26" s="137"/>
-      <c r="V26" s="137"/>
-      <c r="W26" s="137"/>
-      <c r="X26" s="137"/>
-      <c r="Y26" s="137"/>
-      <c r="Z26" s="137"/>
-      <c r="AA26" s="137"/>
-      <c r="AB26" s="137"/>
+      <c r="O26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="63"/>
+      <c r="AB26" s="63"/>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="L27" s="182" t="s">
-        <v>46</v>
-      </c>
-      <c r="M27" s="183"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="183"/>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="183"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="183"/>
-      <c r="T27" s="183"/>
-      <c r="U27" s="183"/>
-      <c r="X27" s="181" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y27" s="181"/>
-      <c r="Z27" s="181"/>
-      <c r="AA27" s="181"/>
-      <c r="AB27" s="164"/>
+      <c r="L27" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="X27" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="100"/>
+      <c r="AB27" s="84"/>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="X28" s="174"/>
-      <c r="Y28" s="174"/>
-      <c r="Z28" s="174"/>
-      <c r="AA28" s="174"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="94"/>
+      <c r="Z28" s="94"/>
+      <c r="AA28" s="94"/>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="X29" s="174"/>
-      <c r="Y29" s="174"/>
-      <c r="Z29" s="174"/>
-      <c r="AA29" s="174"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="L27:U27"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="Z6:AA11"/>
-    <mergeCell ref="O9:R10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="V18:V25"/>
-    <mergeCell ref="L14:AA14"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="J18:J25"/>
-    <mergeCell ref="P18:P25"/>
-    <mergeCell ref="X15:AA15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:I4"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H6:I6"/>
@@ -3268,12 +3211,69 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="J18:J25"/>
+    <mergeCell ref="P18:P25"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="V18:V25"/>
+    <mergeCell ref="L14:AA14"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L27:U27"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="Z6:AA11"/>
+    <mergeCell ref="O9:R10"/>
+    <mergeCell ref="T10:X10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" orientation="landscape" r:id="rId1"/>
